--- a/temp/Definition.xlsx
+++ b/temp/Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramesh.madem\Documents\work\Interfacer\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7997F3F-6551-4B91-907B-F5DCAAA68E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62FBF72-55AD-481E-BB43-BBDD7D48DA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="990" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="990" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterfaceDefinition" sheetId="2" r:id="rId1"/>
@@ -84,38 +84,38 @@
     <t>SourceFileLocation</t>
   </si>
   <si>
+    <t>DestinationDatabaseServer</t>
+  </si>
+  <si>
+    <t>db2008</t>
+  </si>
+  <si>
+    <t>DestinationDatabaseName</t>
+  </si>
+  <si>
+    <t>RedCubeTest</t>
+  </si>
+  <si>
+    <t>DestinationTableName</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>BatchSize</t>
+  </si>
+  <si>
+    <t>IntervalMin</t>
+  </si>
+  <si>
     <t>./temp/test.csv</t>
-  </si>
-  <si>
-    <t>DestinationDatabaseServer</t>
-  </si>
-  <si>
-    <t>db2008</t>
-  </si>
-  <si>
-    <t>DestinationDatabaseName</t>
-  </si>
-  <si>
-    <t>RedCubeTest</t>
-  </si>
-  <si>
-    <t>DestinationTableName</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>BatchSize</t>
-  </si>
-  <si>
-    <t>IntervalMin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -591,11 +599,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -629,6 +639,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -951,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,10 +990,10 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,8 +1060,8 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,13 +1100,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="\\temp\\test.csv" xr:uid="{6EACC472-AE46-4685-B576-28F4A0746005}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
